--- a/data/formatted/basicdata200708.xlsx
+++ b/data/formatted/basicdata200708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9EF1E-3F43-44FA-BC53-4F8A5D7A96AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA404DD-1E7E-4A1F-B96D-E221097CDA45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200708.xlsx
+++ b/data/formatted/basicdata200708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA404DD-1E7E-4A1F-B96D-E221097CDA45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEA7DC2-6502-43CF-AFE6-B91673E53626}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200708.xlsx
+++ b/data/formatted/basicdata200708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEA7DC2-6502-43CF-AFE6-B91673E53626}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191C1495-E079-4DCB-B457-635015399AC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D50C5270-ABB7-4CC9-AB62-6681CDF975D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>American NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Austin Peay NCAA</t>
-  </si>
-  <si>
-    <t>Baylor NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boise State NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>Cal State Fullerton NCAA</t>
-  </si>
-  <si>
-    <t>Clemson NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Coppin State NCAA</t>
-  </si>
-  <si>
-    <t>Cornell NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Drake NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>George Mason NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kent State NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Maryland-Baltimore County NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Miami (FL) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi Valley State NCAA</t>
-  </si>
-  <si>
-    <t>Mount St. Mary's NCAA</t>
-  </si>
-  <si>
-    <t>Nevada-Las Vegas NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oral Roberts NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Portland State NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Saint Mary's (CA) NCAA</t>
-  </si>
-  <si>
-    <t>San Diego NCAA</t>
-  </si>
-  <si>
-    <t>Siena NCAA</t>
-  </si>
-  <si>
-    <t>South Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas-Arlington NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Washington State NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Western Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cal State Fullerton</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Coppin State</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Maryland-Baltimore County</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Mississippi Valley State</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Portland State</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Saint Mary's (CA)</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas-Arlington</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
